--- a/Coverage Survey/Burkina Faso/Oncho/Mai 2021/bf_ect_Oncho_3_cap_202105.xlsx
+++ b/Coverage Survey/Burkina Faso/Oncho/Mai 2021/bf_ect_Oncho_3_cap_202105.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\Oncho\March 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\Oncho\Mai 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BB2E6-2691-4237-9A17-775A260DA145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D4BC2A-E7CB-4555-8435-E03B2AE14681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="1000" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -564,12 +564,6 @@
     <t>${Q13_Informe} = 'Oui' and selected(${Q14_Canaux_information}, 'Other')</t>
   </si>
   <si>
-    <t xml:space="preserve">(BF - Avril 2021) - ECT TIDC Oncho 2021 - 3. Formulaire CAP </t>
-  </si>
-  <si>
-    <t>bf_ect_Oncho_3_cap_202104</t>
-  </si>
-  <si>
     <t>I3_b_Numero_grappe</t>
   </si>
   <si>
@@ -583,6 +577,12 @@
   </si>
   <si>
     <t>. &lt; 30</t>
+  </si>
+  <si>
+    <t>bf_ect_Oncho_3_cap_202105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(BF - Mai 2021) - ECT TIDC Oncho 2021 - 3. Formulaire CAP </t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1090,10 +1090,10 @@
         <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
@@ -1108,10 +1108,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
@@ -1201,7 +1201,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="12">
-        <v>20210329</v>
+        <v>20210427</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>124</v>
